--- a/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6031,7 +6032,6 @@
           <t>中银证券聚瑞混合C</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>27.10</t>
@@ -6047,6 +6047,1696 @@
       </c>
       <c r="H57" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>196.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7525</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6383</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7742,4 +7743,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8707</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8901,4 +8902,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8910,7 +8911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8921,17 +8922,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8941,14 +8962,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.99</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8957,14 +9000,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.43</v>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8973,14 +9038,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.77</v>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6160</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8989,13 +9076,2355 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4894</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0175</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9958</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6405</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5604</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4786</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004340</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康兴泰回报沪港深混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>89</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>49.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11323,7 +11324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11334,17 +11335,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11354,14 +11375,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.02</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -11370,14 +11413,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.99</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -11386,14 +11451,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.43</v>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -11402,14 +11489,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.77</v>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -11418,13 +11527,1649 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1256</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6021</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>89</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>49.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13052,7 +13053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13063,17 +13064,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13083,14 +13104,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.16</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -13099,14 +13142,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.02</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -13115,14 +13180,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.99</v>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -13131,14 +13218,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.43</v>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -13147,14 +13256,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>56</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.77</v>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -13163,13 +13294,4021 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0810</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0658</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0302</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9736</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9708</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7616</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6819</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6734</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6660</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6619</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6366</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5603</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4833</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4094</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>51.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>89</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>49.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600521-华海药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>32.97</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D3" t="n">
-        <v>17.16</v>
+        <v>32.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>23.02</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>13.99</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>16.43</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>27.77</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>89</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>49.29</v>
       </c>
     </row>
@@ -600,6 +617,3482 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0261</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7576</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7382</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6750</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6182</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6161</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5322</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5181</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4721,7 +8214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6449,7 +9942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8861,7 +12354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10019,7 +13512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11709,7 +15202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13886,7 +17379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
